--- a/uploads/service_centers.xlsx
+++ b/uploads/service_centers.xlsx
@@ -11,15 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>addresses</t>
+    <t>latitude</t>
   </si>
   <si>
-    <t>dilsukhnagar,hyderabad</t>
-  </si>
-  <si>
-    <t>stonehousepet, nellore</t>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
@@ -53,13 +50,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -280,15 +278,32 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="2">
+        <v>17.416029</v>
+      </c>
+      <c r="B2" s="1">
+        <v>78.584893</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="1">
+        <v>17.462887</v>
+      </c>
+      <c r="B3" s="1">
+        <v>78.490516</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>17.401078</v>
+      </c>
+      <c r="B4" s="1">
+        <v>78.484195</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/service_centers.xlsx
+++ b/uploads/service_centers.xlsx
@@ -11,12 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>latitude</t>
+    <t>addresses</t>
   </si>
   <si>
-    <t>longitude</t>
+    <t>dilsukhnagar,hyderabad</t>
+  </si>
+  <si>
+    <t>stonehousepet, nellore</t>
   </si>
 </sst>
 </file>
@@ -50,14 +53,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -278,32 +280,15 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>17.416029</v>
-      </c>
-      <c r="B2" s="1">
-        <v>78.584893</v>
-      </c>
-    </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>17.462887</v>
-      </c>
-      <c r="B3" s="1">
-        <v>78.490516</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>17.401078</v>
-      </c>
-      <c r="B4" s="1">
-        <v>78.484195</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
